--- a/TechnicalEnablement/SQL_CAF_Project_TaskList.xlsx
+++ b/TechnicalEnablement/SQL_CAF_Project_TaskList.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswanadham kudapu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34453343-3E8A-4C10-A464-931A038972B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9073A4-64C4-40CB-9E32-3739C8A72BDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL CAF Project Task List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="98">
   <si>
     <t>Title</t>
   </si>
@@ -135,9 +141,6 @@
     <t>SQL Migration - Governance</t>
   </si>
   <si>
-    <t>Organize reqources</t>
-  </si>
-  <si>
     <t>Manage Access</t>
   </si>
   <si>
@@ -175,6 +178,194 @@
   </si>
   <si>
     <t xml:space="preserve">Migration - On-Prem to Azure SQL Managed Instance </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Organize resources</t>
+  </si>
+  <si>
+    <t>* Define a management group hierarchy using management groups, subscriptions, resource groups, and resources.
+* Define naming standard for components considering business and operational details.
+* Apply tags to Azure resources.</t>
+  </si>
+  <si>
+    <t>* Assign RBAC roles at management group, subscription, resource group and resource levels.</t>
+  </si>
+  <si>
+    <t>* Perform cost analysis using Azure cloud costs.
+* Analyse actual, budget and forecast cost views.
+* Create budget and then configure alerts to track its threshold.
+* Review Azure recommendations to identify idle and underused resources, then take action.</t>
+  </si>
+  <si>
+    <t>* Set up policy initiative, initiative definition and assignments using Azure Policy.
+* Create Azure Blueprint to orchestrate role assignments, policy assignments, Azure Resource Manager templates and Resource groups.
+* Deploy Azure resources using defined blueprint.
+* Review security status using Azure Security Center and then take action on the findings and recommendations.</t>
+  </si>
+  <si>
+    <t>* Detect and diagnose issues across applications and dependencies with Application Insights.
+* Correlate infrastructure issues with Azure Monitor for VMs and Azure Monitor for Containers.
+* Troubleshoot and diagnoise monitoring data using Log Analytics.
+* Create visualizations with Azure dashboards and workbooks.
+* Set up Service Health alerts in Azure Service Health to get notified about service issues, planned maintenance, or other changes that might affect Azure services.
+* Review and act on recommendations from Azure Advisor.</t>
+  </si>
+  <si>
+    <t>* Document decisions while executing the cloud adoption strategy and plan
+* Use the template to organize the decisions and data points that will align the template for the cloud adoption plan with specific plans for adoption
+* List business priorities, timelines and milestones in the upcoming year for successful cloud adoption</t>
+  </si>
+  <si>
+    <t>* Identify business motivations based on critical business events, migration motivations and innovation motivations
+* List the operational and capital expenses required for cloud adoption
+* Identify security protocols and compliance issues regarding data or applications
+* Collect motivations focussed more on an innovate strategy</t>
+  </si>
+  <si>
+    <t>* List IT assets that supports specific business applications for later analysis and rationalization
+* Use Data Migration Assistant to assess feature parity between SQL sources and targets
+* Use Azure Migrate to assess the migration suitability of the machines
+* Use Service Map in Azure Migrate to show dependencies between machines to be migrated</t>
+  </si>
+  <si>
+    <t>* Build a costing model for each asset in the digital estate
+* Use Azure Pricing Calculator to predict the estimated monthly Azure bill for any Azure workload
+* Use Azure Cost Management to monitor cloud spending and increase organizational Accountability</t>
+  </si>
+  <si>
+    <t>* Assign a team for cloud adoption and cloud governance</t>
+  </si>
+  <si>
+    <t>* Identify the key cloud readiness courses required to be taken by IT and non-IT people in the organization</t>
+  </si>
+  <si>
+    <t>* Convert the aspirational goals of the cloud adoption strategy into an actionable plan
+* Leverage the cloud adoption plan to guide technical efforts, in alignment with the business outcomes</t>
+  </si>
+  <si>
+    <t>* Familiarize with the features of the components needed to build the Azure environment
+* Organize resources
+* Manage access
+* Azure tools and approach
+* Governance, security, and compliance
+* Monitoring and reporting</t>
+  </si>
+  <si>
+    <t>* Identify pros and cons of landing zones and migration tools for SQL Databases
+* Identify pros and cons of landing zones and migration tools for SQL Managed Instance
+* Identify pros and cons of landing zones and migration tools for SQL Virtual Machines</t>
+  </si>
+  <si>
+    <t>* Decide on target landing zone based on source SQL Server system capabilities, features and code
+* Compile and analyze the data to achieve landing zone goals.
+* Create landing zone for SQL database
+* Identify pros and cons of landing zones and migration tools for SQL Databases
+* Create landing zone for SQL Managed Instance
+* Create landing zone for SQL Virtual Machines</t>
+  </si>
+  <si>
+    <t>* Assess Fully managed service offering for migrating SSIS, SSAS and SSRS to Azure
+* Assess Infrastructure as a service for migrating SSIS, SSAS and SSRS to Azure</t>
+  </si>
+  <si>
+    <t>* Study examples of customer workloads and requirements and decide on an appropriate landing zone as well as the method of migration</t>
+  </si>
+  <si>
+    <t>* Assess and choose deployment methods for migrating on-premises SQL to Azure Virtual Machine
+* Assess and choose testing methods for migrating on-premises SQL to Azure Virtual Machine</t>
+  </si>
+  <si>
+    <t>Use tools to assess migrating a work load from on-premises SQL to Azure Virtual Machine</t>
+  </si>
+  <si>
+    <t>Familiarize with phases necessary to maximize performance while migrating a work load from on-premises SQL to Azure Virtual Machine</t>
+  </si>
+  <si>
+    <t>Familiarize and practice hands-on lab for migrating a work load from on-premises SQL to Azure Virtual Machine</t>
+  </si>
+  <si>
+    <t>Build a Project Plan to track SQL Migration using Cloud Adoption Framework</t>
+  </si>
+  <si>
+    <t>Define business justification and expected outcomes of adoption</t>
+  </si>
+  <si>
+    <t>Align actionable adoption plans to business outcomes</t>
+  </si>
+  <si>
+    <t>Prepare the cloud environment for the planned changes</t>
+  </si>
+  <si>
+    <t>Guidance on Strategy, Plan and Readiness phases</t>
+  </si>
+  <si>
+    <t>Study available methods for SQL migration using Cloud Adoption Framework</t>
+  </si>
+  <si>
+    <t>Detailed assessment for migrating a work load from on-premises SQL to Azure Virtual Machine</t>
+  </si>
+  <si>
+    <t>Detailed assessment for migrating a work load from on-premises SQL to Azure SQL Database</t>
+  </si>
+  <si>
+    <t>Familiarize with phases necessary to maximize performance while migrating a work load from on-premises SQL to Azure SQL Database</t>
+  </si>
+  <si>
+    <t>Use tools to assess migrating a work load from on-premises SQL to Azure SQL Database</t>
+  </si>
+  <si>
+    <t>* Assess and choose deployment methods for migrating on-premises SQL to Azure SQL Database
+* Assess and choose testing methods for migrating on-premises SQL to Azure SQL Database</t>
+  </si>
+  <si>
+    <t>Familiarize and practice hands-on lab for migrating a work load from on-premises SQL to Azure SQL Database</t>
+  </si>
+  <si>
+    <t>Detailed assessment for migrating a work load from on-premises SQL to Azure Managed Instance</t>
+  </si>
+  <si>
+    <t>Familiarize with phases necessary to maximize performance while migrating a work load from on-premises SQL to Azure Managed Instance</t>
+  </si>
+  <si>
+    <t>Use tools to assess migrating a work load from on-premises SQL to Azure Managed Instance</t>
+  </si>
+  <si>
+    <t>* Assess and choose deployment methods for migrating on-premises SQL to Azure Managed Instance
+* Assess and choose testing methods for migrating on-premises SQL to Azure Managed Instance</t>
+  </si>
+  <si>
+    <t>Familiarize and practice hands-on lab for migrating a work load from on-premises SQL to Azure Managed Instance</t>
+  </si>
+  <si>
+    <t>OnPrem to Azure Managed Instance Overview</t>
+  </si>
+  <si>
+    <t>Establish Governance and Operations Management for SQL migration</t>
+  </si>
+  <si>
+    <t>Buid governance foundation for SQL Migration</t>
+  </si>
+  <si>
+    <t>* Create an inventory of assets across multiple clouds
+* Establish controls and processes to ensure each state is properly configured and running in a well-governed environment</t>
+  </si>
+  <si>
+    <t>Sign-off and Closure</t>
+  </si>
+  <si>
+    <t>Review and closure of project</t>
+  </si>
+  <si>
+    <t>Review migration documents with stakeholders</t>
+  </si>
+  <si>
+    <t>Review meeting with stakeholders for tracking progress of the project</t>
+  </si>
+  <si>
+    <t>Provide project sign off</t>
   </si>
 </sst>
 </file>
@@ -208,8 +399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,822 +718,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1520,13 +1856,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A76446-9304-4F9E-A6B8-7B3512E813BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A76446-9304-4F9E-A6B8-7B3512E813BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="24ce65f2-f4ee-4734-b023-07c740501d91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8761106-810F-4A81-8D4E-BCE1FC3EA62C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8761106-810F-4A81-8D4E-BCE1FC3EA62C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350A3D22-F2A5-4C4B-B42B-D7CC6A77C24A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350A3D22-F2A5-4C4B-B42B-D7CC6A77C24A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>